--- a/editECU/17 - Modificación Números de disposición, SUACI y o SAP.xlsx
+++ b/editECU/17 - Modificación Números de disposición, SUACI y o SAP.xlsx
@@ -90,9 +90,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Modificación Informe de dominio</t>
-  </si>
-  <si>
     <t>ID única: 017</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Permite editar los números de disposición, SUACI y/o SAP, según se requiera</t>
+  </si>
+  <si>
+    <t>Modificación números de disposición, SUACI y/o SAP</t>
   </si>
 </sst>
 </file>
@@ -224,17 +224,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,34 +280,8 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,7 +566,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -577,166 +577,161 @@
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.95" customHeight="1">
+    <row r="1" spans="1:4" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="22.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="22.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="22.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="22.95" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="43.05" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="22.95" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="22.95" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="22.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="22.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -747,8 +742,13 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>